--- a/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
+++ b/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5352,7 +5353,6 @@
           <t>华泰柏瑞积极成长混合H</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>74.75</t>
@@ -5384,7 +5384,6 @@
           <t>广发鑫源灵活配置混合C</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>70.32</t>
@@ -5416,7 +5415,6 @@
           <t>华夏新锦绣灵活配置混合C</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>71.87</t>
@@ -5431,6 +5429,2984 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.7425</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.9705</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9618</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3187</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>53.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2435</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1953</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0865</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0142</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9855</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9773</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9338</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8755</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8165</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7305</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4668</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4150</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3862</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3740</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3697</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3097</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2687</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009992</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城量化成长演化混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>66.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001362</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005502</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001379</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006698</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006699</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>红土创新沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>66.46</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
+++ b/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8413,4 +8414,2146 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>338.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.6044</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>226.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.5017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>138.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.8254</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6531</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5690</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2714</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1746</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0290</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9176</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9070</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7646</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7319</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7194</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5032</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4740</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3922</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2221</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>46.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>46.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>65.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
+++ b/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10556,4 +10557,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
+++ b/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10565,7 +10566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10576,17 +10577,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10596,14 +10617,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>52.16</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>358.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.7762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -10612,14 +10655,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>77</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.64</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.4989</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -10628,14 +10693,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>46.24</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>233.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.2853</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -10644,13 +10731,2465 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8840</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3944</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0003</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9581</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9317</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8980</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7858</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7659</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7110</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6139</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5031</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4992</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4928</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3852</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3258</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2908</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2251</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005486</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011484</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011485</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信宜选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005487</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>66.84</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>67.33</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>77</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>74</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>51.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
+++ b/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13088,7 +13089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13099,17 +13100,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13119,14 +13140,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.36</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>322.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.7954</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -13135,14 +13178,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>52.16</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>230.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.7629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -13151,14 +13216,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>77</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51.64</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>209.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.9465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -13167,14 +13254,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46.24</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6561</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -13183,13 +13292,2371 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9908</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4298</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2785</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0056</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8875</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8216</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7784</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7521</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6596</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6152</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5306</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4696</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3511</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3444</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2241</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1883</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003876</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000753</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000754</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝量化对冲策略混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>45.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001196</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方鼎新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.76</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002192</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方鼎新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007404</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>77</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>46.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>74</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>51.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
+++ b/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15539,7 +15540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15550,17 +15551,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15570,14 +15591,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>55.48</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>326.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.2045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -15586,14 +15629,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.36</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>228.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.9471</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -15602,14 +15667,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>52.16</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>181.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.1629</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -15618,14 +15705,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>77</v>
-      </c>
-      <c r="D5" t="n">
-        <v>51.64</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4839</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -15634,14 +15743,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>55</v>
-      </c>
-      <c r="D6" t="n">
-        <v>46.24</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>69.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -15650,13 +15781,2083 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7363</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3293</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0283</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9714</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8504</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7706</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5998</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5902</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5811</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5458</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4471</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4430</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2293</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>77</v>
+      </c>
+      <c r="D6" t="n">
+        <v>51.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>46.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>74</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>51.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
+++ b/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>50.45</v>
+        <v>46.47</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>55.48</v>
+        <v>50.45</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>56.36</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>52.16</v>
+        <v>56.36</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>51.64</v>
+        <v>52.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D7" t="n">
-        <v>46.24</v>
+        <v>51.64</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>55</v>
+      </c>
+      <c r="D8" t="n">
+        <v>46.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>74</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>51.19</v>
       </c>
     </row>
@@ -600,6 +617,2452 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>289.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.5378</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>215.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.1694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>144.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4327</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1433</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4915</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9915</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8073</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7193</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5537</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5376</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4124</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4082</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3087</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1847</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>76.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011554</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通欣利混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001059</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中金绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011555</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通欣利混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2783,7 +5246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5233,7 +7696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7755,7 +10218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9897,7 +12360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12875,7 +15338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15000,7 +17463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
+++ b/数据整理/stocks/A股/上证主板/601211-国泰君安.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>46.47</v>
+        <v>38.31</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>50.45</v>
+        <v>46.47</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>55.48</v>
+        <v>50.45</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>56.36</v>
+        <v>55.48</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D6" t="n">
-        <v>52.16</v>
+        <v>56.36</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>51.64</v>
+        <v>52.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D8" t="n">
-        <v>46.24</v>
+        <v>51.64</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2896 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>55</v>
+      </c>
+      <c r="D9" t="n">
+        <v>46.24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>74</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>51.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>389.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.1960</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>229.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.1015</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9820</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3657</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6890</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4713</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3350</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1232</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0518</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9659</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8993</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8725</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7707</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7168</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5391</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5341</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5198</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4949</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4818</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4415</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>960030</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3506</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>460002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3506</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002833</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003332</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方荣发定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008238</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007143</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008239</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中泰沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001362</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004668</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004669</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信鑫泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001379</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>景顺长城领先回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007144</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国投瑞银沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>003208</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东兴量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>55.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002834</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏新锦绣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>42.76</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3500,2262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>296.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.5563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.4401</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2554</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9464</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7475</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100038</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8594</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7690</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6876</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5226</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4630</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3182</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2876</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013291</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>100.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012221</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002111</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝新起点灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006369</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012222</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>瑞达行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013530</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>弘毅远方国企转型升级混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3062,7 +8201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5246,7 +10385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7696,7 +12835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10218,7 +15357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12360,7 +17499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15338,7 +20477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17461,2870 +22600,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H75"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>389.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>17.1960</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>229.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10.1015</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512900</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>67.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.9820</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161720</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>56.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.3657</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>163113</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.6890</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000311</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城沪深300指数增强</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>67.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.4713</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161027</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>31.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.3350</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501016</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.1232</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>110005</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达积极成长混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>22.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.0518</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512070</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达沪深300非银行金融ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>34.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.9659</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001552</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘中证证券保险指数型发起式 A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>28.55</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.8993</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159993</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华国证证券龙头ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>97.91</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.8725</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501047</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.7707</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160633</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>17.23</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.7168</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009688</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家鑫动力月月购一年滚动持有混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>14.53</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5391</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008591</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5341</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001553</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>天弘中证证券保险指数型发起式 C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5198</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515560</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.4949</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008590</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>11.61</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4818</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>501048</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>10.22</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4415</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>160625</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3963</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>960030</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合H</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3506</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>460002</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华泰柏瑞积极成长混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.51</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3506</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>515010</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3116</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>502010</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>易方达证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2977</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002670</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>万家沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2965</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>160419</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华安中证全指证券公司指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2532</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>001974</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>景顺长城量化新动力股票</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.83</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1841</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>75.19</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1599</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002006</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>工银瑞信新得益混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>21.46</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>21.99</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1481</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>502053</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1393</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002833</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华夏新锦绣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>42.76</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1238</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008856</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>82.64</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1180</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>160516</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>博时中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1082</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>003401</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>工银瑞信可转债债券</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>30.06</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1056</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>003332</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>南方荣发定期开放混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>29.81</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0860</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>008238</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中泰沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0850</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>399001</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>中海上证50指数增强</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0807</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>002871</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0767</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>002671</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>万家沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0737</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0712</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>007143</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>国投瑞银沪深300指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0697</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>165310</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>建信沪深300指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0647</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>515630</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险ETF</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>96.93</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0622</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>515850</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0546</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>166109</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>信达澳银量化先锋混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>95.52</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0517</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005325</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>景顺长城泰恒回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>23.62</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0471</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>008239</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>中泰沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0458</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>001362</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>景顺长城领先回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>20.07</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0447</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>005258</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>景顺长城量化平衡灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>87.92</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0429</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>004668</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>建信鑫泽回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>004669</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>建信鑫泽回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>512570</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>易方达中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>98.58</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>001379</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>景顺长城领先回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>20.07</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>007806</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>建信MSCI中国A股指数增强A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>005437</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0213</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>007807</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>建信MSCI中国A股指数增强C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>005326</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>景顺长城泰恒回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>23.62</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>006201</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>景顺长城量化先锋混合</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>90.76</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>006063</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>景顺长城MSCI中国A股国际通指数增强</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>000411</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>景顺长城优质成长</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>91.76</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>009208</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>建信沪深300指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>006346</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>安信量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>004244</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>东方周期优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>005438</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>007144</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>国投瑞银沪深300指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>90.36</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>004641</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>万家量化睿选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>003208</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>东兴量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>166110</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>信达澳银量化先锋混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>95.52</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>001797</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>华融新利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>55.24</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>002872</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>002834</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>华夏新锦绣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>42.76</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>